--- a/document/考试系统/考试系统用例表--整合版.xlsx
+++ b/document/考试系统/考试系统用例表--整合版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkStudy\github\testSystem\document\考试系统\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -713,19 +713,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>教师主动选择每页学生考卷数量， 并对不同的状态的考卷进行筛选搜索</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统返回主界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>试卷组题时应尽量随机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在主页面显示之前创建过的考试，为考试的安排进度提供额外的信息提示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -803,6 +795,14 @@
   </si>
   <si>
     <t>教师登录系统，进入班级列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师主动选择每页学生考卷数量， 并对不同的状态的考卷进行筛选搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主页面显示之前创建过的考试，为考试的安排进度提供额外的信息提示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1174,10 +1174,10 @@
   <dimension ref="A1:AA64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="H6" sqref="H6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="11.5546875"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
@@ -1213,12 +1213,12 @@
       </c>
       <c r="R1" s="9"/>
       <c r="T1" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U1" s="9"/>
       <c r="V1" s="5"/>
       <c r="W1" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X1" s="9"/>
     </row>
@@ -1249,12 +1249,12 @@
       </c>
       <c r="R2" s="9"/>
       <c r="T2" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="5"/>
       <c r="W2" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X2" s="9"/>
     </row>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="R3" s="9"/>
       <c r="T3" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="5"/>
       <c r="W3" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X3" s="9"/>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="R4" s="9"/>
       <c r="T4" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="5"/>
       <c r="W4" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="X4" s="9"/>
     </row>
@@ -1360,16 +1360,16 @@
       </c>
       <c r="R5" s="9"/>
       <c r="T5" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="5"/>
       <c r="W5" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="245.4" customHeight="1">
+    <row r="6" spans="1:27" ht="216.6" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1398,12 +1398,12 @@
       </c>
       <c r="R6" s="9"/>
       <c r="T6" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="5"/>
       <c r="W6" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="X6" s="9"/>
       <c r="Y6" s="6"/>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="R7" s="9"/>
       <c r="T7" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="5"/>
       <c r="W7" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X7" s="9"/>
     </row>
@@ -1453,7 +1453,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8"/>
       <c r="E8" s="1" t="s">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="R8" s="9"/>
       <c r="T8" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="5"/>
       <c r="W8" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="X8" s="9"/>
     </row>
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="8"/>
       <c r="E9" s="8"/>
@@ -1498,20 +1498,20 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="N9" s="8" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="O9" s="8"/>
       <c r="Q9" s="8" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="R9" s="8"/>
       <c r="T9" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="5"/>
       <c r="W9" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X9" s="9"/>
     </row>
@@ -1583,6 +1583,57 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="T2:U2"/>
@@ -1595,57 +1646,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="W5:X5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
